--- a/soberano/test_cases/order_management_test_cases.xlsx
+++ b/soberano/test_cases/order_management_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Order</t>
   </si>
   <si>
+    <t xml:space="preserve">Process run id</t>
+  </si>
+  <si>
     <t xml:space="preserve">User</t>
   </si>
   <si>
@@ -125,15 +128,68 @@
   </si>
   <si>
     <t xml:space="preserve">Instructions 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A salesclerk isn’t allowed to apply an item discount.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A salesclerk isn’t allowed to cancel order items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful operation. First discount then cancel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful operation. First cancel then discount.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product mp1 price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product mp7 price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surcharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surcharge applied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -171,12 +227,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +312,26 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,35 +353,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="5:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="10.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="10.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,13 +401,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -336,47 +419,50 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="7"/>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8"/>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -385,24 +471,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -411,24 +497,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
+      <c r="D5" s="1" t="n">
+        <v>1009</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,135 +526,148 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="D6" s="1" t="n">
+        <v>1010</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>1002</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="n">
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
+      <c r="D8" s="1" t="n">
+        <v>1011</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>1003</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="n">
         <v>500.123</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="I9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
+      <c r="D10" s="1" t="n">
+        <v>1012</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>2</v>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,27 +675,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
+      <c r="D11" s="1" t="n">
+        <v>1013</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>543.321</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -602,24 +707,27 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1004</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
+      <c r="D12" s="1" t="n">
+        <v>1014</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="J12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -628,27 +736,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
+      <c r="D13" s="1" t="n">
+        <v>1015</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,27 +768,30 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1005</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
+      <c r="D14" s="1" t="n">
+        <v>1016</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,27 +800,30 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
+      <c r="D15" s="1" t="n">
+        <v>1017</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -715,260 +832,794 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
+      <c r="D16" s="1" t="n">
+        <v>1018</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <v>1007</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2" t="n">
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
+      <c r="D18" s="1" t="n">
+        <v>1019</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="n">
         <v>1008</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="2" t="n">
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>456.789</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>1008</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
+      <c r="D20" s="1" t="n">
+        <v>1020</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="n">
         <v>1009</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2" t="n">
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>1000000</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="J21" s="9" t="n">
         <v>100</v>
       </c>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>1009</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
+      <c r="D22" s="1" t="n">
+        <v>1021</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>543.321</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>300.123</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>4.41791077</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>5.21246365</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="12"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <f aca="false">(H5*C35+H6*C36)*(1-C40/100-J6/100)*(1+D40*C37)</f>
+        <v>13.87805359545</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13" t="n">
+        <f aca="false">(H8*C36-C36)*(1-C41/100-J8/100)*(1+D41*C37)</f>
+        <v>10.320678027</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>100</v>
-      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13" t="n">
+        <f aca="false">(C36)*(1-C42/100-J12/100)*(1+D42*C37)</f>
+        <v>4.9518404675</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="n">
+        <f aca="false">((H14-3)*C36)*(1-C43/100-J14/100)*(1+D43*C37)</f>
+        <v>17.201130045</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13" t="n">
+        <f aca="false">((H15-1)*C35+(H16)*C36)*(1-C44/100-J16/100)*(1+D44*C37)</f>
+        <v>54.15888863</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="9"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="9"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="9"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="9"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="9"/>
+      <c r="G64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="9"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="9"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="9"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="9"/>
+      <c r="G68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="9"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="9"/>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="9"/>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="9"/>
+      <c r="G72" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/soberano/test_cases/order_management_test_cases.xlsx
+++ b/soberano/test_cases/order_management_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -166,6 +166,9 @@
     <t xml:space="preserve">check order 1002</t>
   </si>
   <si>
+    <t xml:space="preserve">check order 1003</t>
+  </si>
+  <si>
     <t xml:space="preserve">check order 1004</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">check order 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check order 1007</t>
   </si>
   <si>
     <t xml:space="preserve">check order 1008</t>
@@ -353,9 +359,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -364,10 +370,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.75"/>
@@ -1478,11 +1484,11 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="13" t="n">
-        <f aca="false">(C36)*(1-C42/100-J12/100)*(1+D42*C37)</f>
-        <v>4.9518404675</v>
+        <f aca="false">(H10*C36)*(1-C42/100-J10/100)*(1+D42*C37)</f>
+        <v>22.93484006</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,11 +1502,11 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="13" t="n">
-        <f aca="false">((H14-3)*C36)*(1-C43/100-J14/100)*(1+D43*C37)</f>
-        <v>17.201130045</v>
+        <f aca="false">(C36)*(1-C43/100-J12/100)*(1+D43*C37)</f>
+        <v>4.9518404675</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,11 +1520,11 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="13" t="n">
-        <f aca="false">((H15-1)*C35+(H16)*C36)*(1-C44/100-J16/100)*(1+D44*C37)</f>
-        <v>54.15888863</v>
+        <f aca="false">((H14-3)*C36)*(1-C44/100-J14/100)*(1+D44*C37)</f>
+        <v>17.201130045</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,13 +1535,14 @@
         <v>51</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="13" t="n">
-        <v>0</v>
+        <f aca="false">((H15-1)*C35+(H16)*C36)*(1-C45/100-J16/100)*(1+D45*C37)</f>
+        <v>54.15888863</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,20 +1553,49 @@
         <v>52</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13" t="n">
+        <f aca="false">(H18*C36)*(1-C46/100-J18/100)*(1+D46*C37)</f>
+        <v>39.3645254848</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="14"/>
+      <c r="E47" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="14"/>
@@ -1620,6 +1656,12 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
